--- a/Code/Results/Cases/Case_5_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_249/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02347484487544</v>
+        <v>1.046410094356494</v>
       </c>
       <c r="D2">
-        <v>1.040565573984693</v>
+        <v>1.052502357523927</v>
       </c>
       <c r="E2">
-        <v>1.036004274947282</v>
+        <v>1.0535431997867</v>
       </c>
       <c r="F2">
-        <v>1.045122448035045</v>
+        <v>1.063154658258427</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057784087938688</v>
+        <v>1.046370944666637</v>
       </c>
       <c r="J2">
-        <v>1.04497540153697</v>
+        <v>1.051464639180589</v>
       </c>
       <c r="K2">
-        <v>1.05148727753376</v>
+        <v>1.055250912285313</v>
       </c>
       <c r="L2">
-        <v>1.046983805754206</v>
+        <v>1.056288878300932</v>
       </c>
       <c r="M2">
-        <v>1.055987008602271</v>
+        <v>1.065874064711381</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027527558640111</v>
+        <v>1.047272777979757</v>
       </c>
       <c r="D3">
-        <v>1.043625329468611</v>
+        <v>1.053174587009434</v>
       </c>
       <c r="E3">
-        <v>1.039336624793012</v>
+        <v>1.054300472242774</v>
       </c>
       <c r="F3">
-        <v>1.048699300442914</v>
+        <v>1.063969289289568</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059137244988534</v>
+        <v>1.046599402790632</v>
       </c>
       <c r="J3">
-        <v>1.047294922764771</v>
+        <v>1.051975807316008</v>
       </c>
       <c r="K3">
-        <v>1.053728861623774</v>
+        <v>1.055736361232915</v>
       </c>
       <c r="L3">
-        <v>1.049489759956738</v>
+        <v>1.056859359196669</v>
       </c>
       <c r="M3">
-        <v>1.058744793467875</v>
+        <v>1.066503652169136</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.030101490633436</v>
+        <v>1.047831598638368</v>
       </c>
       <c r="D4">
-        <v>1.045571163566686</v>
+        <v>1.053610051471106</v>
       </c>
       <c r="E4">
-        <v>1.041458497299238</v>
+        <v>1.054791384495719</v>
       </c>
       <c r="F4">
-        <v>1.050976532172964</v>
+        <v>1.064497371788746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059986867051374</v>
+        <v>1.046746182611589</v>
       </c>
       <c r="J4">
-        <v>1.048765328457715</v>
+        <v>1.052306500533726</v>
       </c>
       <c r="K4">
-        <v>1.055149018913189</v>
+        <v>1.056050282978239</v>
       </c>
       <c r="L4">
-        <v>1.051081035481254</v>
+        <v>1.057228738463213</v>
       </c>
       <c r="M4">
-        <v>1.060496311308103</v>
+        <v>1.066911343259094</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031172334659693</v>
+        <v>1.048066670468117</v>
       </c>
       <c r="D5">
-        <v>1.046381267265924</v>
+        <v>1.05379323556001</v>
       </c>
       <c r="E5">
-        <v>1.042342543681305</v>
+        <v>1.054997979158089</v>
       </c>
       <c r="F5">
-        <v>1.051925230842786</v>
+        <v>1.064719605997859</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060337956054307</v>
+        <v>1.046807637173305</v>
       </c>
       <c r="J5">
-        <v>1.049376378837293</v>
+        <v>1.052445506687237</v>
       </c>
       <c r="K5">
-        <v>1.055738978946441</v>
+        <v>1.0561822073908</v>
       </c>
       <c r="L5">
-        <v>1.051742961091647</v>
+        <v>1.057384081523131</v>
       </c>
       <c r="M5">
-        <v>1.061224972405637</v>
+        <v>1.067082808249699</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031351485341657</v>
+        <v>1.048106148438105</v>
       </c>
       <c r="D6">
-        <v>1.046516828815191</v>
+        <v>1.053823999656794</v>
       </c>
       <c r="E6">
-        <v>1.042490517342241</v>
+        <v>1.055032679874371</v>
       </c>
       <c r="F6">
-        <v>1.052084021774257</v>
+        <v>1.064756933432829</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060396551673299</v>
+        <v>1.046817940882627</v>
       </c>
       <c r="J6">
-        <v>1.049478565394563</v>
+        <v>1.052468845381367</v>
       </c>
       <c r="K6">
-        <v>1.055837626071537</v>
+        <v>1.05620435521002</v>
       </c>
       <c r="L6">
-        <v>1.051853693584367</v>
+        <v>1.057410167549512</v>
       </c>
       <c r="M6">
-        <v>1.061346873628649</v>
+        <v>1.06711160213218</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.030115842990199</v>
+        <v>1.04783473911733</v>
       </c>
       <c r="D7">
-        <v>1.045582019062846</v>
+        <v>1.05361249873689</v>
       </c>
       <c r="E7">
-        <v>1.041470341046778</v>
+        <v>1.054794144180609</v>
       </c>
       <c r="F7">
-        <v>1.050989242375711</v>
+        <v>1.064500340398368</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059991582098031</v>
+        <v>1.046747004760378</v>
       </c>
       <c r="J7">
-        <v>1.048773521028315</v>
+        <v>1.052308358010257</v>
       </c>
       <c r="K7">
-        <v>1.05515692955188</v>
+        <v>1.056052045950098</v>
       </c>
       <c r="L7">
-        <v>1.05108990760042</v>
+        <v>1.057230813946479</v>
       </c>
       <c r="M7">
-        <v>1.060506077603507</v>
+        <v>1.06691363410311</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.02485473158448</v>
+        <v>1.046701515740858</v>
       </c>
       <c r="D8">
-        <v>1.041606816206927</v>
+        <v>1.052729438720105</v>
       </c>
       <c r="E8">
-        <v>1.037137725837133</v>
+        <v>1.0537989347974</v>
       </c>
       <c r="F8">
-        <v>1.046339133194687</v>
+        <v>1.063429766339915</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058246844938227</v>
+        <v>1.046448369635741</v>
       </c>
       <c r="J8">
-        <v>1.045765721855248</v>
+        <v>1.051637403886412</v>
       </c>
       <c r="K8">
-        <v>1.052251215046971</v>
+        <v>1.055415011856546</v>
       </c>
       <c r="L8">
-        <v>1.04783708644537</v>
+        <v>1.056481624438279</v>
       </c>
       <c r="M8">
-        <v>1.056925968715163</v>
+        <v>1.066086772452097</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015195927563797</v>
+        <v>1.044709349095275</v>
       </c>
       <c r="D9">
-        <v>1.034330884594537</v>
+        <v>1.051177182344819</v>
       </c>
       <c r="E9">
-        <v>1.029228405808955</v>
+        <v>1.052052270941793</v>
       </c>
       <c r="F9">
-        <v>1.037847500530706</v>
+        <v>1.061550728715294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054967753110191</v>
+        <v>1.045914147078352</v>
       </c>
       <c r="J9">
-        <v>1.040223258752957</v>
+        <v>1.050454643086296</v>
       </c>
       <c r="K9">
-        <v>1.046890483578709</v>
+        <v>1.054291032292907</v>
       </c>
       <c r="L9">
-        <v>1.04186442615222</v>
+        <v>1.055163358215764</v>
       </c>
       <c r="M9">
-        <v>1.05035498577766</v>
+        <v>1.064632149204381</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.008470717850615</v>
+        <v>1.043384505847398</v>
       </c>
       <c r="D10">
-        <v>1.02928258912674</v>
+        <v>1.050145010511039</v>
       </c>
       <c r="E10">
-        <v>1.023754106676375</v>
+        <v>1.050892658676792</v>
       </c>
       <c r="F10">
-        <v>1.031968135391995</v>
+        <v>1.060303160720003</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052635525411345</v>
+        <v>1.045552675682619</v>
       </c>
       <c r="J10">
-        <v>1.036352240090219</v>
+        <v>1.049665907856401</v>
       </c>
       <c r="K10">
-        <v>1.043142526773929</v>
+        <v>1.053540820388045</v>
       </c>
       <c r="L10">
-        <v>1.037707321577044</v>
+        <v>1.054285877984772</v>
       </c>
       <c r="M10">
-        <v>1.04578322669093</v>
+        <v>1.063664116507995</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005484789868308</v>
+        <v>1.042811629307164</v>
       </c>
       <c r="D11">
-        <v>1.027046072005247</v>
+        <v>1.049698723224958</v>
       </c>
       <c r="E11">
-        <v>1.021331920786513</v>
+        <v>1.050391702453033</v>
       </c>
       <c r="F11">
-        <v>1.029366196960458</v>
+        <v>1.059764189429707</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051588925290855</v>
+        <v>1.045394902222928</v>
       </c>
       <c r="J11">
-        <v>1.034631161965986</v>
+        <v>1.049324338948396</v>
       </c>
       <c r="K11">
-        <v>1.041475348597716</v>
+        <v>1.053215775317032</v>
       </c>
       <c r="L11">
-        <v>1.035862457208277</v>
+        <v>1.053906260887236</v>
       </c>
       <c r="M11">
-        <v>1.043754774561592</v>
+        <v>1.063245374531637</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004364039030788</v>
+        <v>1.042598957648596</v>
       </c>
       <c r="D12">
-        <v>1.026207399652618</v>
+        <v>1.049533051697716</v>
       </c>
       <c r="E12">
-        <v>1.02042407297055</v>
+        <v>1.050205801679255</v>
       </c>
       <c r="F12">
-        <v>1.028390894256545</v>
+        <v>1.059564178826633</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051194466299334</v>
+        <v>1.045336110543973</v>
       </c>
       <c r="J12">
-        <v>1.033984846396317</v>
+        <v>1.049197460136542</v>
       </c>
       <c r="K12">
-        <v>1.040849160695111</v>
+        <v>1.053095010631725</v>
       </c>
       <c r="L12">
-        <v>1.035170168869615</v>
+        <v>1.053765306371852</v>
       </c>
       <c r="M12">
-        <v>1.042993659791523</v>
+        <v>1.063089900200524</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004604979958226</v>
+        <v>1.042644570976323</v>
       </c>
       <c r="D13">
-        <v>1.026387662132659</v>
+        <v>1.049568584273913</v>
       </c>
       <c r="E13">
-        <v>1.020619183793677</v>
+        <v>1.050245670001556</v>
       </c>
       <c r="F13">
-        <v>1.028600506000316</v>
+        <v>1.059607073271414</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05127934038306</v>
+        <v>1.045348730034681</v>
       </c>
       <c r="J13">
-        <v>1.034123806182</v>
+        <v>1.049224676273729</v>
       </c>
       <c r="K13">
-        <v>1.040983797947177</v>
+        <v>1.053120916333811</v>
       </c>
       <c r="L13">
-        <v>1.035318989765196</v>
+        <v>1.05379553920946</v>
       </c>
       <c r="M13">
-        <v>1.043157273317136</v>
+        <v>1.063123247001521</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005392389070468</v>
+        <v>1.042794047340253</v>
       </c>
       <c r="D14">
-        <v>1.026976910852708</v>
+        <v>1.049685026725867</v>
       </c>
       <c r="E14">
-        <v>1.021257046019723</v>
+        <v>1.050376332222235</v>
       </c>
       <c r="F14">
-        <v>1.029285760555319</v>
+        <v>1.05974765265805</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051556436689488</v>
+        <v>1.045390046306562</v>
       </c>
       <c r="J14">
-        <v>1.034577882444886</v>
+        <v>1.049313851198888</v>
       </c>
       <c r="K14">
-        <v>1.041423730568254</v>
+        <v>1.053205793443634</v>
       </c>
       <c r="L14">
-        <v>1.035805377461231</v>
+        <v>1.053894608470234</v>
       </c>
       <c r="M14">
-        <v>1.043692018689367</v>
+        <v>1.063232521638011</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005875977932225</v>
+        <v>1.042886160636684</v>
       </c>
       <c r="D15">
-        <v>1.027338905326919</v>
+        <v>1.04975678399432</v>
       </c>
       <c r="E15">
-        <v>1.021648964194773</v>
+        <v>1.050456860995384</v>
       </c>
       <c r="F15">
-        <v>1.029706786704073</v>
+        <v>1.059834293139596</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051726403111656</v>
+        <v>1.045415477791653</v>
       </c>
       <c r="J15">
-        <v>1.034856713408076</v>
+        <v>1.049368794201581</v>
       </c>
       <c r="K15">
-        <v>1.041693861778205</v>
+        <v>1.053258085299052</v>
       </c>
       <c r="L15">
-        <v>1.036104117282985</v>
+        <v>1.053955655268876</v>
       </c>
       <c r="M15">
-        <v>1.044020468463297</v>
+        <v>1.063299858020017</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.008667281855932</v>
+        <v>1.043422542544087</v>
       </c>
       <c r="D16">
-        <v>1.029429925964908</v>
+        <v>1.050174642975127</v>
       </c>
       <c r="E16">
-        <v>1.023913737920134</v>
+        <v>1.050925930165103</v>
       </c>
       <c r="F16">
-        <v>1.032139601722545</v>
+        <v>1.060338956632884</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052704195257651</v>
+        <v>1.04556312023646</v>
       </c>
       <c r="J16">
-        <v>1.036465492443556</v>
+        <v>1.049688575899783</v>
       </c>
       <c r="K16">
-        <v>1.043252216118376</v>
+        <v>1.053562388493001</v>
       </c>
       <c r="L16">
-        <v>1.037828790562431</v>
+        <v>1.054311079158752</v>
       </c>
       <c r="M16">
-        <v>1.045916792422561</v>
+        <v>1.063691916073266</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.010398041069878</v>
+        <v>1.043759213203461</v>
       </c>
       <c r="D17">
-        <v>1.030727799648621</v>
+        <v>1.050436930148016</v>
       </c>
       <c r="E17">
-        <v>1.025320259675325</v>
+        <v>1.051220477691646</v>
       </c>
       <c r="F17">
-        <v>1.033650342810112</v>
+        <v>1.060655850435328</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053307576292377</v>
+        <v>1.045655397286463</v>
       </c>
       <c r="J17">
-        <v>1.03746241992919</v>
+        <v>1.049889156358778</v>
       </c>
       <c r="K17">
-        <v>1.04421768779341</v>
+        <v>1.053753217677048</v>
       </c>
       <c r="L17">
-        <v>1.038898435097445</v>
+        <v>1.054534118593506</v>
       </c>
       <c r="M17">
-        <v>1.047093008875294</v>
+        <v>1.063937957993481</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011400475077931</v>
+        <v>1.043955663553817</v>
       </c>
       <c r="D18">
-        <v>1.031479971393242</v>
+        <v>1.050589980406753</v>
       </c>
       <c r="E18">
-        <v>1.02613568961642</v>
+        <v>1.051392394420273</v>
       </c>
       <c r="F18">
-        <v>1.034526144083791</v>
+        <v>1.060840808149807</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053655987507788</v>
+        <v>1.045709099885684</v>
       </c>
       <c r="J18">
-        <v>1.038039598607709</v>
+        <v>1.050006147470151</v>
       </c>
       <c r="K18">
-        <v>1.044776576967629</v>
+        <v>1.053864505883019</v>
       </c>
       <c r="L18">
-        <v>1.039518037626478</v>
+        <v>1.05466424620164</v>
       </c>
       <c r="M18">
-        <v>1.047774385126279</v>
+        <v>1.064081510747569</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011741092880918</v>
+        <v>1.044022660897209</v>
       </c>
       <c r="D19">
-        <v>1.031735628640503</v>
+        <v>1.05064217715117</v>
       </c>
       <c r="E19">
-        <v>1.026412897713597</v>
+        <v>1.051451032546115</v>
       </c>
       <c r="F19">
-        <v>1.034823867288974</v>
+        <v>1.060903894062277</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053774193346829</v>
+        <v>1.045727390528874</v>
       </c>
       <c r="J19">
-        <v>1.038235678555854</v>
+        <v>1.050046037684732</v>
       </c>
       <c r="K19">
-        <v>1.044966430098851</v>
+        <v>1.053902448983391</v>
       </c>
       <c r="L19">
-        <v>1.039728584776448</v>
+        <v>1.054708621818111</v>
       </c>
       <c r="M19">
-        <v>1.048005930520043</v>
+        <v>1.064130465375822</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.01021308403291</v>
+        <v>1.043723083750033</v>
       </c>
       <c r="D20">
-        <v>1.030589054708447</v>
+        <v>1.050408782729849</v>
       </c>
       <c r="E20">
-        <v>1.025169869858068</v>
+        <v>1.051188863917025</v>
       </c>
       <c r="F20">
-        <v>1.033488814712301</v>
+        <v>1.060621838414723</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053243205733237</v>
+        <v>1.04564550934654</v>
       </c>
       <c r="J20">
-        <v>1.037355907085398</v>
+        <v>1.049867636386094</v>
       </c>
       <c r="K20">
-        <v>1.044114543744013</v>
+        <v>1.053732745490892</v>
       </c>
       <c r="L20">
-        <v>1.038784119495982</v>
+        <v>1.05451018520301</v>
       </c>
       <c r="M20">
-        <v>1.046967299424729</v>
+        <v>1.063911555806288</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005160842706778</v>
+        <v>1.042750026945753</v>
       </c>
       <c r="D21">
-        <v>1.026803613473253</v>
+        <v>1.049650734566517</v>
       </c>
       <c r="E21">
-        <v>1.021069439204018</v>
+        <v>1.050337850562918</v>
       </c>
       <c r="F21">
-        <v>1.029084217107646</v>
+        <v>1.059706250345568</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051474997779063</v>
+        <v>1.045377884866258</v>
       </c>
       <c r="J21">
-        <v>1.034444364750386</v>
+        <v>1.049287591531174</v>
       </c>
       <c r="K21">
-        <v>1.041294374751953</v>
+        <v>1.053180800025628</v>
       </c>
       <c r="L21">
-        <v>1.035662344717743</v>
+        <v>1.053865433590174</v>
       </c>
       <c r="M21">
-        <v>1.043534763533688</v>
+        <v>1.06320034117172</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001916632784848</v>
+        <v>1.04213892372673</v>
       </c>
       <c r="D22">
-        <v>1.024377495169709</v>
+        <v>1.049174695826753</v>
       </c>
       <c r="E22">
-        <v>1.018444045263054</v>
+        <v>1.049803807786457</v>
       </c>
       <c r="F22">
-        <v>1.026263590387185</v>
+        <v>1.059131668597817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050330146509649</v>
+        <v>1.045208533787225</v>
       </c>
       <c r="J22">
-        <v>1.032572932659785</v>
+        <v>1.048922866539275</v>
       </c>
       <c r="K22">
-        <v>1.039481018780502</v>
+        <v>1.052833605924925</v>
       </c>
       <c r="L22">
-        <v>1.033658767930675</v>
+        <v>1.053460355259775</v>
       </c>
       <c r="M22">
-        <v>1.041332117740493</v>
+        <v>1.062753549645546</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003643055033593</v>
+        <v>1.04246281457466</v>
       </c>
       <c r="D23">
-        <v>1.02566810853486</v>
+        <v>1.049426997750402</v>
       </c>
       <c r="E23">
-        <v>1.019840424909003</v>
+        <v>1.050086816366983</v>
       </c>
       <c r="F23">
-        <v>1.027763856203511</v>
+        <v>1.059436161773842</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050940257487023</v>
+        <v>1.045298412570522</v>
       </c>
       <c r="J23">
-        <v>1.033568983915391</v>
+        <v>1.04911621635604</v>
       </c>
       <c r="K23">
-        <v>1.040446218277387</v>
+        <v>1.053017675196038</v>
       </c>
       <c r="L23">
-        <v>1.034724870386341</v>
+        <v>1.053675065779639</v>
       </c>
       <c r="M23">
-        <v>1.042504108736982</v>
+        <v>1.062990365986272</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010296680022873</v>
+        <v>1.043739408860064</v>
       </c>
       <c r="D24">
-        <v>1.030651762557589</v>
+        <v>1.050421501143367</v>
       </c>
       <c r="E24">
-        <v>1.025237839877371</v>
+        <v>1.051203148474722</v>
       </c>
       <c r="F24">
-        <v>1.033561818930685</v>
+        <v>1.060637206615606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053272302915645</v>
+        <v>1.045649977655065</v>
       </c>
       <c r="J24">
-        <v>1.037404048960464</v>
+        <v>1.049877360348187</v>
       </c>
       <c r="K24">
-        <v>1.044161163227313</v>
+        <v>1.053741996050175</v>
       </c>
       <c r="L24">
-        <v>1.038835787072454</v>
+        <v>1.054520999571798</v>
       </c>
       <c r="M24">
-        <v>1.047024116587907</v>
+        <v>1.063923485692762</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017741443284677</v>
+        <v>1.045223802978284</v>
       </c>
       <c r="D25">
-        <v>1.036245549668735</v>
+        <v>1.051578015673089</v>
       </c>
       <c r="E25">
-        <v>1.031307374916267</v>
+        <v>1.052502982012899</v>
       </c>
       <c r="F25">
-        <v>1.040079868054536</v>
+        <v>1.06203561025358</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055840581204382</v>
+        <v>1.046053198193782</v>
       </c>
       <c r="J25">
-        <v>1.041686141397901</v>
+        <v>1.050760460945028</v>
       </c>
       <c r="K25">
-        <v>1.048306099404172</v>
+        <v>1.054581770971372</v>
       </c>
       <c r="L25">
-        <v>1.043438374234867</v>
+        <v>1.055503927492445</v>
       </c>
       <c r="M25">
-        <v>1.052086299027323</v>
+        <v>1.065007908582331</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_249/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046410094356494</v>
+        <v>1.02347484487544</v>
       </c>
       <c r="D2">
-        <v>1.052502357523927</v>
+        <v>1.040565573984693</v>
       </c>
       <c r="E2">
-        <v>1.0535431997867</v>
+        <v>1.036004274947281</v>
       </c>
       <c r="F2">
-        <v>1.063154658258427</v>
+        <v>1.045122448035045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046370944666637</v>
+        <v>1.057784087938688</v>
       </c>
       <c r="J2">
-        <v>1.051464639180589</v>
+        <v>1.04497540153697</v>
       </c>
       <c r="K2">
-        <v>1.055250912285313</v>
+        <v>1.05148727753376</v>
       </c>
       <c r="L2">
-        <v>1.056288878300932</v>
+        <v>1.046983805754206</v>
       </c>
       <c r="M2">
-        <v>1.065874064711381</v>
+        <v>1.055987008602271</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047272777979757</v>
+        <v>1.027527558640111</v>
       </c>
       <c r="D3">
-        <v>1.053174587009434</v>
+        <v>1.04362532946861</v>
       </c>
       <c r="E3">
-        <v>1.054300472242774</v>
+        <v>1.039336624793012</v>
       </c>
       <c r="F3">
-        <v>1.063969289289568</v>
+        <v>1.048699300442913</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046599402790632</v>
+        <v>1.059137244988533</v>
       </c>
       <c r="J3">
-        <v>1.051975807316008</v>
+        <v>1.04729492276477</v>
       </c>
       <c r="K3">
-        <v>1.055736361232915</v>
+        <v>1.053728861623773</v>
       </c>
       <c r="L3">
-        <v>1.056859359196669</v>
+        <v>1.049489759956738</v>
       </c>
       <c r="M3">
-        <v>1.066503652169136</v>
+        <v>1.058744793467875</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047831598638368</v>
+        <v>1.030101490633435</v>
       </c>
       <c r="D4">
-        <v>1.053610051471106</v>
+        <v>1.045571163566686</v>
       </c>
       <c r="E4">
-        <v>1.054791384495719</v>
+        <v>1.041458497299238</v>
       </c>
       <c r="F4">
-        <v>1.064497371788746</v>
+        <v>1.050976532172963</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046746182611589</v>
+        <v>1.059986867051373</v>
       </c>
       <c r="J4">
-        <v>1.052306500533726</v>
+        <v>1.048765328457715</v>
       </c>
       <c r="K4">
-        <v>1.056050282978239</v>
+        <v>1.055149018913189</v>
       </c>
       <c r="L4">
-        <v>1.057228738463213</v>
+        <v>1.051081035481254</v>
       </c>
       <c r="M4">
-        <v>1.066911343259094</v>
+        <v>1.060496311308102</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048066670468117</v>
+        <v>1.031172334659692</v>
       </c>
       <c r="D5">
-        <v>1.05379323556001</v>
+        <v>1.046381267265923</v>
       </c>
       <c r="E5">
-        <v>1.054997979158089</v>
+        <v>1.042342543681304</v>
       </c>
       <c r="F5">
-        <v>1.064719605997859</v>
+        <v>1.051925230842786</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046807637173305</v>
+        <v>1.060337956054306</v>
       </c>
       <c r="J5">
-        <v>1.052445506687237</v>
+        <v>1.049376378837292</v>
       </c>
       <c r="K5">
-        <v>1.0561822073908</v>
+        <v>1.055738978946441</v>
       </c>
       <c r="L5">
-        <v>1.057384081523131</v>
+        <v>1.051742961091647</v>
       </c>
       <c r="M5">
-        <v>1.067082808249699</v>
+        <v>1.061224972405637</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048106148438105</v>
+        <v>1.031351485341656</v>
       </c>
       <c r="D6">
-        <v>1.053823999656794</v>
+        <v>1.046516828815191</v>
       </c>
       <c r="E6">
-        <v>1.055032679874371</v>
+        <v>1.042490517342241</v>
       </c>
       <c r="F6">
-        <v>1.064756933432829</v>
+        <v>1.052084021774257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046817940882627</v>
+        <v>1.060396551673299</v>
       </c>
       <c r="J6">
-        <v>1.052468845381367</v>
+        <v>1.049478565394562</v>
       </c>
       <c r="K6">
-        <v>1.05620435521002</v>
+        <v>1.055837626071536</v>
       </c>
       <c r="L6">
-        <v>1.057410167549512</v>
+        <v>1.051853693584366</v>
       </c>
       <c r="M6">
-        <v>1.06711160213218</v>
+        <v>1.061346873628649</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04783473911733</v>
+        <v>1.030115842990199</v>
       </c>
       <c r="D7">
-        <v>1.05361249873689</v>
+        <v>1.045582019062846</v>
       </c>
       <c r="E7">
-        <v>1.054794144180609</v>
+        <v>1.041470341046779</v>
       </c>
       <c r="F7">
-        <v>1.064500340398368</v>
+        <v>1.050989242375711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046747004760378</v>
+        <v>1.059991582098031</v>
       </c>
       <c r="J7">
-        <v>1.052308358010257</v>
+        <v>1.048773521028315</v>
       </c>
       <c r="K7">
-        <v>1.056052045950098</v>
+        <v>1.05515692955188</v>
       </c>
       <c r="L7">
-        <v>1.057230813946479</v>
+        <v>1.05108990760042</v>
       </c>
       <c r="M7">
-        <v>1.06691363410311</v>
+        <v>1.060506077603507</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046701515740858</v>
+        <v>1.024854731584478</v>
       </c>
       <c r="D8">
-        <v>1.052729438720105</v>
+        <v>1.041606816206926</v>
       </c>
       <c r="E8">
-        <v>1.0537989347974</v>
+        <v>1.037137725837131</v>
       </c>
       <c r="F8">
-        <v>1.063429766339915</v>
+        <v>1.046339133194686</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046448369635741</v>
+        <v>1.058246844938226</v>
       </c>
       <c r="J8">
-        <v>1.051637403886412</v>
+        <v>1.045765721855247</v>
       </c>
       <c r="K8">
-        <v>1.055415011856546</v>
+        <v>1.05225121504697</v>
       </c>
       <c r="L8">
-        <v>1.056481624438279</v>
+        <v>1.047837086445369</v>
       </c>
       <c r="M8">
-        <v>1.066086772452097</v>
+        <v>1.056925968715161</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044709349095275</v>
+        <v>1.015195927563797</v>
       </c>
       <c r="D9">
-        <v>1.051177182344819</v>
+        <v>1.034330884594538</v>
       </c>
       <c r="E9">
-        <v>1.052052270941793</v>
+        <v>1.029228405808956</v>
       </c>
       <c r="F9">
-        <v>1.061550728715294</v>
+        <v>1.037847500530707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045914147078352</v>
+        <v>1.054967753110191</v>
       </c>
       <c r="J9">
-        <v>1.050454643086296</v>
+        <v>1.040223258752958</v>
       </c>
       <c r="K9">
-        <v>1.054291032292907</v>
+        <v>1.04689048357871</v>
       </c>
       <c r="L9">
-        <v>1.055163358215764</v>
+        <v>1.04186442615222</v>
       </c>
       <c r="M9">
-        <v>1.064632149204381</v>
+        <v>1.050354985777661</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043384505847398</v>
+        <v>1.008470717850615</v>
       </c>
       <c r="D10">
-        <v>1.050145010511039</v>
+        <v>1.02928258912674</v>
       </c>
       <c r="E10">
-        <v>1.050892658676792</v>
+        <v>1.023754106676375</v>
       </c>
       <c r="F10">
-        <v>1.060303160720003</v>
+        <v>1.031968135391996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045552675682619</v>
+        <v>1.052635525411345</v>
       </c>
       <c r="J10">
-        <v>1.049665907856401</v>
+        <v>1.036352240090219</v>
       </c>
       <c r="K10">
-        <v>1.053540820388045</v>
+        <v>1.043142526773929</v>
       </c>
       <c r="L10">
-        <v>1.054285877984772</v>
+        <v>1.037707321577045</v>
       </c>
       <c r="M10">
-        <v>1.063664116507995</v>
+        <v>1.04578322669093</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042811629307164</v>
+        <v>1.005484789868307</v>
       </c>
       <c r="D11">
-        <v>1.049698723224958</v>
+        <v>1.027046072005247</v>
       </c>
       <c r="E11">
-        <v>1.050391702453033</v>
+        <v>1.021331920786512</v>
       </c>
       <c r="F11">
-        <v>1.059764189429707</v>
+        <v>1.029366196960458</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045394902222928</v>
+        <v>1.051588925290855</v>
       </c>
       <c r="J11">
-        <v>1.049324338948396</v>
+        <v>1.034631161965986</v>
       </c>
       <c r="K11">
-        <v>1.053215775317032</v>
+        <v>1.041475348597716</v>
       </c>
       <c r="L11">
-        <v>1.053906260887236</v>
+        <v>1.035862457208276</v>
       </c>
       <c r="M11">
-        <v>1.063245374531637</v>
+        <v>1.043754774561592</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042598957648596</v>
+        <v>1.004364039030787</v>
       </c>
       <c r="D12">
-        <v>1.049533051697716</v>
+        <v>1.026207399652617</v>
       </c>
       <c r="E12">
-        <v>1.050205801679255</v>
+        <v>1.02042407297055</v>
       </c>
       <c r="F12">
-        <v>1.059564178826633</v>
+        <v>1.028390894256544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045336110543973</v>
+        <v>1.051194466299333</v>
       </c>
       <c r="J12">
-        <v>1.049197460136542</v>
+        <v>1.033984846396315</v>
       </c>
       <c r="K12">
-        <v>1.053095010631725</v>
+        <v>1.04084916069511</v>
       </c>
       <c r="L12">
-        <v>1.053765306371852</v>
+        <v>1.035170168869615</v>
       </c>
       <c r="M12">
-        <v>1.063089900200524</v>
+        <v>1.042993659791521</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042644570976323</v>
+        <v>1.004604979958226</v>
       </c>
       <c r="D13">
-        <v>1.049568584273913</v>
+        <v>1.026387662132659</v>
       </c>
       <c r="E13">
-        <v>1.050245670001556</v>
+        <v>1.020619183793677</v>
       </c>
       <c r="F13">
-        <v>1.059607073271414</v>
+        <v>1.028600506000316</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045348730034681</v>
+        <v>1.05127934038306</v>
       </c>
       <c r="J13">
-        <v>1.049224676273729</v>
+        <v>1.034123806182</v>
       </c>
       <c r="K13">
-        <v>1.053120916333811</v>
+        <v>1.040983797947177</v>
       </c>
       <c r="L13">
-        <v>1.05379553920946</v>
+        <v>1.035318989765196</v>
       </c>
       <c r="M13">
-        <v>1.063123247001521</v>
+        <v>1.043157273317136</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042794047340253</v>
+        <v>1.005392389070467</v>
       </c>
       <c r="D14">
-        <v>1.049685026725867</v>
+        <v>1.026976910852708</v>
       </c>
       <c r="E14">
-        <v>1.050376332222235</v>
+        <v>1.021257046019722</v>
       </c>
       <c r="F14">
-        <v>1.05974765265805</v>
+        <v>1.029285760555318</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045390046306562</v>
+        <v>1.051556436689487</v>
       </c>
       <c r="J14">
-        <v>1.049313851198888</v>
+        <v>1.034577882444885</v>
       </c>
       <c r="K14">
-        <v>1.053205793443634</v>
+        <v>1.041423730568253</v>
       </c>
       <c r="L14">
-        <v>1.053894608470234</v>
+        <v>1.03580537746123</v>
       </c>
       <c r="M14">
-        <v>1.063232521638011</v>
+        <v>1.043692018689366</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042886160636684</v>
+        <v>1.005875977932225</v>
       </c>
       <c r="D15">
-        <v>1.04975678399432</v>
+        <v>1.027338905326919</v>
       </c>
       <c r="E15">
-        <v>1.050456860995384</v>
+        <v>1.021648964194773</v>
       </c>
       <c r="F15">
-        <v>1.059834293139596</v>
+        <v>1.029706786704073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045415477791653</v>
+        <v>1.051726403111656</v>
       </c>
       <c r="J15">
-        <v>1.049368794201581</v>
+        <v>1.034856713408076</v>
       </c>
       <c r="K15">
-        <v>1.053258085299052</v>
+        <v>1.041693861778206</v>
       </c>
       <c r="L15">
-        <v>1.053955655268876</v>
+        <v>1.036104117282985</v>
       </c>
       <c r="M15">
-        <v>1.063299858020017</v>
+        <v>1.044020468463297</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043422542544087</v>
+        <v>1.008667281855932</v>
       </c>
       <c r="D16">
-        <v>1.050174642975127</v>
+        <v>1.029429925964908</v>
       </c>
       <c r="E16">
-        <v>1.050925930165103</v>
+        <v>1.023913737920134</v>
       </c>
       <c r="F16">
-        <v>1.060338956632884</v>
+        <v>1.032139601722545</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04556312023646</v>
+        <v>1.052704195257651</v>
       </c>
       <c r="J16">
-        <v>1.049688575899783</v>
+        <v>1.036465492443556</v>
       </c>
       <c r="K16">
-        <v>1.053562388493001</v>
+        <v>1.043252216118376</v>
       </c>
       <c r="L16">
-        <v>1.054311079158752</v>
+        <v>1.037828790562431</v>
       </c>
       <c r="M16">
-        <v>1.063691916073266</v>
+        <v>1.045916792422561</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043759213203461</v>
+        <v>1.010398041069879</v>
       </c>
       <c r="D17">
-        <v>1.050436930148016</v>
+        <v>1.030727799648621</v>
       </c>
       <c r="E17">
-        <v>1.051220477691646</v>
+        <v>1.025320259675325</v>
       </c>
       <c r="F17">
-        <v>1.060655850435328</v>
+        <v>1.033650342810112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045655397286463</v>
+        <v>1.053307576292377</v>
       </c>
       <c r="J17">
-        <v>1.049889156358778</v>
+        <v>1.03746241992919</v>
       </c>
       <c r="K17">
-        <v>1.053753217677048</v>
+        <v>1.04421768779341</v>
       </c>
       <c r="L17">
-        <v>1.054534118593506</v>
+        <v>1.038898435097444</v>
       </c>
       <c r="M17">
-        <v>1.063937957993481</v>
+        <v>1.047093008875294</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043955663553817</v>
+        <v>1.011400475077932</v>
       </c>
       <c r="D18">
-        <v>1.050589980406753</v>
+        <v>1.031479971393243</v>
       </c>
       <c r="E18">
-        <v>1.051392394420273</v>
+        <v>1.02613568961642</v>
       </c>
       <c r="F18">
-        <v>1.060840808149807</v>
+        <v>1.034526144083791</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045709099885684</v>
+        <v>1.053655987507789</v>
       </c>
       <c r="J18">
-        <v>1.050006147470151</v>
+        <v>1.03803959860771</v>
       </c>
       <c r="K18">
-        <v>1.053864505883019</v>
+        <v>1.04477657696763</v>
       </c>
       <c r="L18">
-        <v>1.05466424620164</v>
+        <v>1.039518037626479</v>
       </c>
       <c r="M18">
-        <v>1.064081510747569</v>
+        <v>1.04777438512628</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044022660897209</v>
+        <v>1.011741092880919</v>
       </c>
       <c r="D19">
-        <v>1.05064217715117</v>
+        <v>1.031735628640504</v>
       </c>
       <c r="E19">
-        <v>1.051451032546115</v>
+        <v>1.026412897713597</v>
       </c>
       <c r="F19">
-        <v>1.060903894062277</v>
+        <v>1.034823867288975</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045727390528874</v>
+        <v>1.05377419334683</v>
       </c>
       <c r="J19">
-        <v>1.050046037684732</v>
+        <v>1.038235678555854</v>
       </c>
       <c r="K19">
-        <v>1.053902448983391</v>
+        <v>1.044966430098852</v>
       </c>
       <c r="L19">
-        <v>1.054708621818111</v>
+        <v>1.039728584776448</v>
       </c>
       <c r="M19">
-        <v>1.064130465375822</v>
+        <v>1.048005930520044</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043723083750033</v>
+        <v>1.01021308403291</v>
       </c>
       <c r="D20">
-        <v>1.050408782729849</v>
+        <v>1.030589054708446</v>
       </c>
       <c r="E20">
-        <v>1.051188863917025</v>
+        <v>1.025169869858068</v>
       </c>
       <c r="F20">
-        <v>1.060621838414723</v>
+        <v>1.0334888147123</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04564550934654</v>
+        <v>1.053243205733237</v>
       </c>
       <c r="J20">
-        <v>1.049867636386094</v>
+        <v>1.037355907085398</v>
       </c>
       <c r="K20">
-        <v>1.053732745490892</v>
+        <v>1.044114543744013</v>
       </c>
       <c r="L20">
-        <v>1.05451018520301</v>
+        <v>1.038784119495982</v>
       </c>
       <c r="M20">
-        <v>1.063911555806288</v>
+        <v>1.046967299424728</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042750026945753</v>
+        <v>1.005160842706778</v>
       </c>
       <c r="D21">
-        <v>1.049650734566517</v>
+        <v>1.026803613473252</v>
       </c>
       <c r="E21">
-        <v>1.050337850562918</v>
+        <v>1.021069439204018</v>
       </c>
       <c r="F21">
-        <v>1.059706250345568</v>
+        <v>1.029084217107646</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045377884866258</v>
+        <v>1.051474997779063</v>
       </c>
       <c r="J21">
-        <v>1.049287591531174</v>
+        <v>1.034444364750386</v>
       </c>
       <c r="K21">
-        <v>1.053180800025628</v>
+        <v>1.041294374751953</v>
       </c>
       <c r="L21">
-        <v>1.053865433590174</v>
+        <v>1.035662344717743</v>
       </c>
       <c r="M21">
-        <v>1.06320034117172</v>
+        <v>1.043534763533688</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04213892372673</v>
+        <v>1.001916632784847</v>
       </c>
       <c r="D22">
-        <v>1.049174695826753</v>
+        <v>1.024377495169709</v>
       </c>
       <c r="E22">
-        <v>1.049803807786457</v>
+        <v>1.018444045263053</v>
       </c>
       <c r="F22">
-        <v>1.059131668597817</v>
+        <v>1.026263590387184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045208533787225</v>
+        <v>1.050330146509649</v>
       </c>
       <c r="J22">
-        <v>1.048922866539275</v>
+        <v>1.032572932659784</v>
       </c>
       <c r="K22">
-        <v>1.052833605924925</v>
+        <v>1.039481018780502</v>
       </c>
       <c r="L22">
-        <v>1.053460355259775</v>
+        <v>1.033658767930675</v>
       </c>
       <c r="M22">
-        <v>1.062753549645546</v>
+        <v>1.041332117740492</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04246281457466</v>
+        <v>1.003643055033593</v>
       </c>
       <c r="D23">
-        <v>1.049426997750402</v>
+        <v>1.02566810853486</v>
       </c>
       <c r="E23">
-        <v>1.050086816366983</v>
+        <v>1.019840424909003</v>
       </c>
       <c r="F23">
-        <v>1.059436161773842</v>
+        <v>1.027763856203511</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045298412570522</v>
+        <v>1.050940257487023</v>
       </c>
       <c r="J23">
-        <v>1.04911621635604</v>
+        <v>1.033568983915391</v>
       </c>
       <c r="K23">
-        <v>1.053017675196038</v>
+        <v>1.040446218277386</v>
       </c>
       <c r="L23">
-        <v>1.053675065779639</v>
+        <v>1.034724870386341</v>
       </c>
       <c r="M23">
-        <v>1.062990365986272</v>
+        <v>1.042504108736982</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043739408860064</v>
+        <v>1.010296680022872</v>
       </c>
       <c r="D24">
-        <v>1.050421501143367</v>
+        <v>1.030651762557589</v>
       </c>
       <c r="E24">
-        <v>1.051203148474722</v>
+        <v>1.02523783987737</v>
       </c>
       <c r="F24">
-        <v>1.060637206615606</v>
+        <v>1.033561818930684</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045649977655065</v>
+        <v>1.053272302915645</v>
       </c>
       <c r="J24">
-        <v>1.049877360348187</v>
+        <v>1.037404048960463</v>
       </c>
       <c r="K24">
-        <v>1.053741996050175</v>
+        <v>1.044161163227313</v>
       </c>
       <c r="L24">
-        <v>1.054520999571798</v>
+        <v>1.038835787072454</v>
       </c>
       <c r="M24">
-        <v>1.063923485692762</v>
+        <v>1.047024116587906</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045223802978284</v>
+        <v>1.017741443284677</v>
       </c>
       <c r="D25">
-        <v>1.051578015673089</v>
+        <v>1.036245549668735</v>
       </c>
       <c r="E25">
-        <v>1.052502982012899</v>
+        <v>1.031307374916267</v>
       </c>
       <c r="F25">
-        <v>1.06203561025358</v>
+        <v>1.040079868054536</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046053198193782</v>
+        <v>1.055840581204382</v>
       </c>
       <c r="J25">
-        <v>1.050760460945028</v>
+        <v>1.041686141397901</v>
       </c>
       <c r="K25">
-        <v>1.054581770971372</v>
+        <v>1.048306099404172</v>
       </c>
       <c r="L25">
-        <v>1.055503927492445</v>
+        <v>1.043438374234868</v>
       </c>
       <c r="M25">
-        <v>1.065007908582331</v>
+        <v>1.052086299027324</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
